--- a/data and plots.xlsx
+++ b/data and plots.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzhanwen/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DB2194-D503-E14E-93D0-83FE87913510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16140" activeTab="5" xr2:uid="{7F617450-ABD1-AA49-81AB-673E0923B0AB}"/>
+    <workbookView windowWidth="21340" windowHeight="12160" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,118 +15,440 @@
     <sheet name="Emulating PV" sheetId="6" r:id="rId6"/>
     <sheet name="EPV2" sheetId="7" r:id="rId7"/>
     <sheet name="EPV3" sheetId="8" r:id="rId8"/>
+    <sheet name="LED" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>Vin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Iin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>I3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Itotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Vin </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Lin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>串0.5</t>
+  </si>
+  <si>
+    <t>串10</t>
+  </si>
+  <si>
+    <t>shunt</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">并120 </t>
+  </si>
+  <si>
+    <t>串2.2</t>
   </si>
   <si>
     <t>bin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">并120 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>voltage</t>
   </si>
   <si>
-    <t>串2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Current</t>
   </si>
   <si>
-    <t>串10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>串0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>vd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -140,9 +456,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -151,24 +709,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -182,6 +784,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -195,7 +798,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -207,7 +810,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -215,7 +817,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -242,6 +844,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$D$2:$D$17</c:f>
@@ -279,7 +884,7 @@
                   <c:v>0.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.66700000000000004</c:v>
+                  <c:v>0.667</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.5</c:v>
@@ -288,13 +893,13 @@
                   <c:v>0.38</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.25700000000000001</c:v>
+                  <c:v>0.257</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.7000000000000003E-2</c:v>
+                  <c:v>0.097</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>0.036</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,62 +911,57 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>4.5309744999999992</c:v>
+                  <c:v>4.5309745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9887799999999993</c:v>
+                  <c:v>3.98878</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.2093072</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3773355999999999</c:v>
+                  <c:v>2.3773356</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.17242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74374999999999991</c:v>
+                  <c:v>0.74375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.51749480000000003</c:v>
+                  <c:v>0.5174948</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.3636471</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19104120000000002</c:v>
+                  <c:v>0.1910412</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.9929599999999995E-2</c:v>
+                  <c:v>0.0699296</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3599122000000004E-2</c:v>
+                  <c:v>0.043599122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.4E-2</c:v>
+                  <c:v>0.024</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4006800000000002E-2</c:v>
+                  <c:v>0.0140068</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.2086060000000002E-3</c:v>
+                  <c:v>0.006208606</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.7503699999999995E-4</c:v>
+                  <c:v>0.000875037</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1793599999999999E-4</c:v>
+                  <c:v>0.000117936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-553F-554F-9023-78D9291D2B4E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -417,7 +1017,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -429,7 +1029,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="802790640"/>
@@ -479,7 +1078,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -491,7 +1090,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="35467423"/>
@@ -508,13 +1106,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -537,9 +1128,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -551,7 +1141,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -565,6 +1155,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -578,7 +1169,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -590,7 +1181,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -598,7 +1188,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -636,6 +1226,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'Emulating PV'!$A$2:$A$10</c:f>
@@ -649,7 +1242,7 @@
                   <c:v>2.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2200000000000002</c:v>
+                  <c:v>2.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>2.9</c:v>
@@ -664,7 +1257,7 @@
                   <c:v>4.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9000000000000004</c:v>
+                  <c:v>4.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.92</c:v>
@@ -709,11 +1302,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA15-E147-B517-F03278CC7B1A}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -769,7 +1357,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -781,7 +1369,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556501328"/>
@@ -831,7 +1418,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -843,7 +1430,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="556570080"/>
@@ -860,13 +1446,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -889,9 +1468,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -903,7 +1481,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -917,6 +1495,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -930,7 +1509,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -942,7 +1521,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -950,7 +1528,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -977,6 +1555,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'EPV2'!$A$1:$A$19</c:f>
@@ -984,13 +1565,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>4.4400000000000004</c:v>
+                  <c:v>4.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4000000000000004</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3600000000000003</c:v>
+                  <c:v>4.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4.28</c:v>
@@ -999,7 +1580,7 @@
                   <c:v>4.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0599999999999996</c:v>
+                  <c:v>4.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3.9</c:v>
@@ -1056,7 +1637,7 @@
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.08</c:v>
@@ -1104,11 +1685,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ACC3-124F-8C33-AD3211884B68}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1165,7 +1741,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1177,7 +1753,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1828625840"/>
@@ -1227,7 +1802,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1239,7 +1814,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1828708064"/>
@@ -1256,13 +1830,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1285,9 +1852,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1299,7 +1865,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1313,6 +1879,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1326,7 +1893,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1338,7 +1905,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1346,7 +1912,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1373,6 +1939,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'EPV3'!$A$2:$A$14</c:f>
@@ -1401,7 +1970,7 @@
                   <c:v>4.62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5599999999999996</c:v>
+                  <c:v>4.56</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3.78</c:v>
@@ -1431,7 +2000,7 @@
                   <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.07</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.08</c:v>
@@ -1470,11 +2039,6 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53E2-F748-87B6-498215F07C70}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1531,7 +2095,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1543,7 +2107,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="370874816"/>
@@ -1593,7 +2156,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1605,7 +2168,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="370873136"/>
@@ -1622,13 +2184,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1651,9 +2206,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1664,8 +2218,8 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1679,6 +2233,1136 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.392181413466889"/>
+          <c:y val="0.0396016125207493"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EPV3'!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.56</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.78</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EPV3'!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.242</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3374</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6058</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.693</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8208</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.756</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4494</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4242</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="683819307"/>
+        <c:axId val="605535065"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="683819307"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="605535065"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="605535065"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683819307"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LED!$A$2:$A$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.22</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.74</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.74</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.88</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LED!$B$2:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.053</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="180133672"/>
+        <c:axId val="559296324"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="180133672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="559296324"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="559296324"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180133672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>LED!$E$2:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.48</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.64</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>LED!$F$2:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.223</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.283</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.327</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.053</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.072</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="445916630"/>
+        <c:axId val="583793910"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="445916630"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583793910"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="583793910"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445916630"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1692,7 +3376,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1704,7 +3388,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1712,7 +3395,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1750,6 +3433,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>attemp1!$E$9:$E$15</c:f>
@@ -1757,7 +3443,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>2.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.23</c:v>
@@ -1769,13 +3455,13 @@
                   <c:v>1.044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69599999999999995</c:v>
+                  <c:v>0.696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>0.395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36899999999999999</c:v>
+                  <c:v>0.369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1787,35 +3473,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.8649999999999994E-2</c:v>
+                  <c:v>0.05865</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.5750000000000001E-2</c:v>
+                  <c:v>0.05575</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3227000000000002E-2</c:v>
+                  <c:v>0.043227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7144000000000001E-2</c:v>
+                  <c:v>0.027144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9487999999999998E-2</c:v>
+                  <c:v>0.019488</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2245000000000001E-2</c:v>
+                  <c:v>0.012245</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0701E-2</c:v>
+                  <c:v>0.010701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-420F-6A4C-825A-F846F5D72657}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1871,7 +3552,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1883,7 +3564,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="370414704"/>
@@ -1933,7 +3613,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1945,7 +3625,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="370398656"/>
@@ -1962,13 +3641,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1991,9 +3663,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2005,7 +3676,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2019,6 +3690,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2032,7 +3704,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2044,7 +3716,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2052,7 +3723,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2079,6 +3750,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>attemp1!$E$8:$E$15</c:f>
@@ -2089,7 +3763,7 @@
                   <c:v>3.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>2.55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.23</c:v>
@@ -2101,13 +3775,13 @@
                   <c:v>1.044</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69599999999999995</c:v>
+                  <c:v>0.696</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>0.395</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.36899999999999999</c:v>
+                  <c:v>0.369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2119,38 +3793,33 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>8.1000000000000003E-2</c:v>
+                  <c:v>0.081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8649999999999994E-2</c:v>
+                  <c:v>0.05865</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5750000000000001E-2</c:v>
+                  <c:v>0.05575</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3227000000000002E-2</c:v>
+                  <c:v>0.043227</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7144000000000001E-2</c:v>
+                  <c:v>0.027144</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9487999999999998E-2</c:v>
+                  <c:v>0.019488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2245000000000001E-2</c:v>
+                  <c:v>0.012245</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0701E-2</c:v>
+                  <c:v>0.010701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA01-C843-9069-49FE9BDD9C6D}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2206,7 +3875,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2218,7 +3887,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="802926112"/>
@@ -2268,7 +3936,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2280,7 +3948,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="34696191"/>
@@ -2297,13 +3964,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2326,9 +3986,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2340,7 +3999,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2354,6 +4013,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2367,7 +4027,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2379,7 +4039,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2387,7 +4046,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2414,6 +4073,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>attemp1!$A$2:$A$8</c:f>
@@ -2421,7 +4083,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>2.55</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.23</c:v>
@@ -2433,13 +4095,13 @@
                   <c:v>1.044</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69599999999999995</c:v>
+                  <c:v>0.696</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.39500000000000002</c:v>
+                  <c:v>0.395</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.36899999999999999</c:v>
+                  <c:v>0.369</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2451,35 +4113,30 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3E-2</c:v>
+                  <c:v>0.023</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>0.025</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>0.027</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5999999999999999E-2</c:v>
+                  <c:v>0.026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>0.028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1E-2</c:v>
+                  <c:v>0.031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9000000000000001E-2</c:v>
+                  <c:v>0.029</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-53A7-2E43-AE6D-0F10CF52AF06}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2535,7 +4192,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2547,7 +4204,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="772310192"/>
@@ -2597,7 +4253,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2609,7 +4265,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="301665599"/>
@@ -2626,13 +4281,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2655,9 +4303,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2669,7 +4316,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2683,6 +4330,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2696,7 +4344,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2708,7 +4356,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2716,7 +4363,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2743,6 +4390,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet4!$L$2:$L$10</c:f>
@@ -2753,7 +4403,7 @@
                   <c:v>5.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.32</c:v>
@@ -2765,16 +4415,16 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>2.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6910000000000001</c:v>
+                  <c:v>1.691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79600000000000004</c:v>
+                  <c:v>0.796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67900000000000005</c:v>
+                  <c:v>0.679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2786,41 +4436,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.28032000000000001</c:v>
+                  <c:v>0.28032</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.3417</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34560000000000002</c:v>
+                  <c:v>0.3456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27503999999999995</c:v>
+                  <c:v>0.27504</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.2336</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14808999999999997</c:v>
+                  <c:v>0.14809</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2859000000000002E-2</c:v>
+                  <c:v>0.082859</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8656000000000001E-2</c:v>
+                  <c:v>0.028656</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.3086000000000002E-2</c:v>
+                  <c:v>0.023086</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C78C-3844-AF0B-3733C286BA5C}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2876,7 +4521,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2888,7 +4533,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="802639664"/>
@@ -2938,7 +4582,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2950,7 +4594,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="803028192"/>
@@ -2967,13 +4610,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -2996,9 +4632,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3010,7 +4645,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3024,6 +4659,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3037,7 +4673,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3049,7 +4685,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3057,7 +4692,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3084,6 +4719,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet4!$H$1:$H$9</c:f>
@@ -3094,7 +4732,7 @@
                   <c:v>5.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.32</c:v>
@@ -3106,16 +4744,16 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>2.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6910000000000001</c:v>
+                  <c:v>1.691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79600000000000004</c:v>
+                  <c:v>0.796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67900000000000005</c:v>
+                  <c:v>0.679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,41 +4765,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.067</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1999999999999995E-2</c:v>
+                  <c:v>0.072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>0.073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>0.059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>0.049</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>0.036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>0.034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-50C1-DE48-88BA-93BD0B26BCA8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3217,7 +4850,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3229,7 +4862,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2137733791"/>
@@ -3279,7 +4911,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3291,7 +4923,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2137730223"/>
@@ -3308,13 +4939,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3337,9 +4961,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3351,7 +4974,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3365,6 +4988,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3378,7 +5002,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3390,7 +5014,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3398,7 +5021,7 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3425,6 +5048,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet4!$H$1:$H$9</c:f>
@@ -3435,7 +5061,7 @@
                   <c:v>5.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0999999999999996</c:v>
+                  <c:v>5.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>4.32</c:v>
@@ -3447,16 +5073,16 @@
                   <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5099999999999998</c:v>
+                  <c:v>2.51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6910000000000001</c:v>
+                  <c:v>1.691</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.79600000000000004</c:v>
+                  <c:v>0.796</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67900000000000005</c:v>
+                  <c:v>0.679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3468,41 +5094,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.7000000000000004E-2</c:v>
+                  <c:v>0.067</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1999999999999995E-2</c:v>
+                  <c:v>0.072</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2999999999999995E-2</c:v>
+                  <c:v>0.073</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8999999999999997E-2</c:v>
+                  <c:v>0.059</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.9000000000000002E-2</c:v>
+                  <c:v>0.049</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5999999999999997E-2</c:v>
+                  <c:v>0.036</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.4000000000000002E-2</c:v>
+                  <c:v>0.034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DB6A-DD4F-8AE6-D2530FB441C4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3558,7 +5179,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3570,7 +5191,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="301544271"/>
@@ -3620,7 +5240,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3632,7 +5252,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="756590352"/>
@@ -3649,13 +5268,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -3678,9 +5290,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3692,7 +5303,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3706,6 +5317,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3719,7 +5331,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3731,7 +5343,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3742,14 +5353,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="3.2555386048846897E-2"/>
-          <c:y val="0.14124161073825503"/>
-          <c:w val="0.93942499408603963"/>
-          <c:h val="0.79769037679014954"/>
+          <c:x val="0.0386796699174794"/>
+          <c:y val="0.165764074400827"/>
+          <c:w val="0.93942499408604"/>
+          <c:h val="0.79769037679015"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3787,6 +5398,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'best one'!$C$2:$C$24</c:f>
@@ -3824,7 +5438,7 @@
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.68</c:v>
@@ -3872,10 +5486,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.20680000000000001</c:v>
+                  <c:v>0.2068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21209999999999998</c:v>
+                  <c:v>0.2121</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.217</c:v>
@@ -3884,71 +5498,66 @@
                   <c:v>0.2225</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.22719999999999999</c:v>
+                  <c:v>0.2272</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22919999999999999</c:v>
+                  <c:v>0.2292</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22900000000000001</c:v>
+                  <c:v>0.229</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.2288</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23219999999999999</c:v>
+                  <c:v>0.2322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23549999999999999</c:v>
+                  <c:v>0.2355</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23719999999999999</c:v>
+                  <c:v>0.2372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23100000000000001</c:v>
+                  <c:v>0.231</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16300000000000001</c:v>
+                  <c:v>0.163</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.15569999999999998</c:v>
+                  <c:v>0.1557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11370000000000001</c:v>
+                  <c:v>0.1137</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11040000000000001</c:v>
+                  <c:v>0.1104</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.10340000000000001</c:v>
+                  <c:v>0.1034</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8200000000000001E-2</c:v>
+                  <c:v>0.0882</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7.8599999999999989E-2</c:v>
+                  <c:v>0.0786</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.1200000000000004E-2</c:v>
+                  <c:v>0.0612</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7700000000000001E-2</c:v>
+                  <c:v>0.0577</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.41E-2</c:v>
+                  <c:v>0.0441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6208-354E-8468-A411644E9D7E}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4005,7 +5614,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4017,7 +5626,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="535372512"/>
@@ -4069,7 +5677,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4081,7 +5689,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="153621232"/>
@@ -4098,13 +5705,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4127,9 +5727,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4141,7 +5740,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -4155,6 +5754,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4168,7 +5768,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4180,15 +5780,24 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0267609106599819"/>
+          <c:y val="0.143228645729146"/>
+          <c:w val="0.939541382427879"/>
+          <c:h val="0.75123024604921"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+        <c:scatterStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4226,6 +5835,9 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>'best one'!$F$2:$F$24</c:f>
@@ -4263,7 +5875,7 @@
                   <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.0199999999999996</c:v>
+                  <c:v>4.02</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>4.68</c:v>
@@ -4311,64 +5923,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.62040000000000006</c:v>
+                  <c:v>0.6204</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64902599999999999</c:v>
+                  <c:v>0.649026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68137999999999999</c:v>
+                  <c:v>0.68138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.71200000000000008</c:v>
+                  <c:v>0.712</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.74521599999999988</c:v>
+                  <c:v>0.745216</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75635999999999992</c:v>
+                  <c:v>0.75636</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.75570000000000004</c:v>
+                  <c:v>0.7557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.75503999999999993</c:v>
+                  <c:v>0.75504</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.7755479999999999</c:v>
+                  <c:v>0.775548</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80069999999999997</c:v>
+                  <c:v>0.8007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.95354399999999984</c:v>
+                  <c:v>0.953544</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>1.08108</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0512300000000001</c:v>
+                  <c:v>1.05123</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.89161000000000001</c:v>
+                  <c:v>0.89161</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.85479299999999991</c:v>
+                  <c:v>0.854793</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.64240500000000011</c:v>
+                  <c:v>0.642405</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.62376000000000009</c:v>
+                  <c:v>0.62376</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.58834600000000004</c:v>
+                  <c:v>0.588346</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.505386</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.45352199999999993</c:v>
+                  <c:v>0.453522</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.355572</c:v>
@@ -4377,17 +5989,12 @@
                   <c:v>0.336391</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.25886700000000001</c:v>
+                  <c:v>0.258867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BD20-D54C-950A-EA968DD8CCEC}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4443,7 +6050,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4455,7 +6062,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="370729728"/>
@@ -4505,7 +6111,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4517,7 +6123,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="370728080"/>
@@ -4534,13 +6139,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4563,9 +6161,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr lang="zh-CN"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4697,6 +6294,126 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7120,7 +8837,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7636,7 +9353,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8152,7 +9869,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8668,7 +10385,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9184,7 +10901,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9700,7 +11417,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10216,7 +11933,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10732,7 +12449,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11248,8 +12965,1556 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -11263,20 +14528,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5627515A-C94B-824D-AE33-0516D9B94B15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6623050" y="1695450"/>
+        <a:ext cx="4648200" cy="2280920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11290,7 +14549,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -11304,20 +14563,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2791F36C-E621-8543-B1C4-FC68123365D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6623050" y="1695450"/>
+        <a:ext cx="4648200" cy="2280920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11340,20 +14593,14 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9830EAE-8CA9-AA41-B607-8BEC361DE086}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11931650" y="869950"/>
+        <a:ext cx="4635500" cy="2280920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11376,20 +14623,14 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="图表 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7487EA00-3F79-9C45-AA7D-16C5AEBF2B2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="图表 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="7791450" y="224790"/>
+        <a:ext cx="4635500" cy="2280920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11403,7 +14644,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -11417,20 +14658,14 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{842810F4-2045-4344-8BE0-2E7463682708}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="1549400" y="2056130"/>
+        <a:ext cx="4648200" cy="2280920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11453,20 +14688,14 @@
       <xdr:row>27</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0753CB0C-52C6-9344-B040-3B78B41E9232}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6559550" y="2353310"/>
+        <a:ext cx="4648200" cy="2280920"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11489,20 +14718,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6140E718-BCCF-7D45-806E-406E42FBA60A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8070850" y="1676400"/>
+        <a:ext cx="4648200" cy="2274570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11516,34 +14739,28 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>107108</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>116718</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>751840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>162988</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>40517</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>807720</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38734</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C613E1E-47AB-EB41-8A47-F076AFEEBFCF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图表 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="6619240" y="617855"/>
+        <a:ext cx="8437880" cy="3108325"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11555,31 +14772,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>758940</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137710</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>511810</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>76506</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>122410</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>667576</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>49470</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E8E6198-6611-DE45-A4C5-E478477FBB0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4702810" y="4591050"/>
+        <a:ext cx="7699375" cy="3336925"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11593,7 +14804,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -11607,20 +14818,14 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F406479D-FE61-F24B-AD45-DDA08D04DC5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4838700" y="939800"/>
+        <a:ext cx="7429500" cy="3558540"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11634,7 +14839,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -11648,20 +14853,14 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF0146A-BB74-764C-B82A-2C11F7280CC4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4165600" y="838200"/>
+        <a:ext cx="13550900" cy="3138170"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -11675,38 +14874,127 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:rowOff>125095</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>453390</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33655</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="图表 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD1B7D5-1091-CE47-A277-278D4F52BB30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="4028440" y="2136775"/>
+        <a:ext cx="5645150" cy="2758440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>372110</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>753110</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127635</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="372110" y="4549775"/>
+        <a:ext cx="4572000" cy="2786380"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>431165</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>202565</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>102235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2503805" y="3853815"/>
+        <a:ext cx="4607560" cy="2786380"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>418465</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>189865</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4563745" y="1212215"/>
+        <a:ext cx="4607560" cy="2786380"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11758,7 +15046,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -11791,26 +15079,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -11843,23 +15114,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12001,24 +15255,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BAB81EA-875F-C14E-A03B-A50C83EBCA0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -12042,18 +15291,18 @@
         <v>5.59</v>
       </c>
       <c r="B2">
-        <v>0.14499999999999999</v>
+        <v>0.145</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>0.81054999999999988</v>
+        <v>0.81055</v>
       </c>
       <c r="D2">
         <v>5.59</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>4.5309744999999992</v>
+        <v>4.5309745</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12061,18 +15310,18 @@
         <v>5.3</v>
       </c>
       <c r="B3">
-        <v>0.14199999999999999</v>
+        <v>0.142</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:E19" si="0">A3*B3</f>
-        <v>0.75259999999999994</v>
+        <v>0.7526</v>
       </c>
       <c r="D3">
         <v>5.3</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>3.9887799999999993</v>
+        <v>3.98878</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -12080,7 +15329,7 @@
         <v>4.84</v>
       </c>
       <c r="B4">
-        <v>0.13700000000000001</v>
+        <v>0.137</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -12099,7 +15348,7 @@
         <v>4.26</v>
       </c>
       <c r="B5">
-        <v>0.13100000000000001</v>
+        <v>0.131</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -12110,7 +15359,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2.3773355999999999</v>
+        <v>2.3773356</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -12122,7 +15371,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.37819999999999998</v>
+        <v>0.3782</v>
       </c>
       <c r="D6">
         <v>3.1</v>
@@ -12137,18 +15386,18 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>0.11899999999999999</v>
+        <v>0.119</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.29749999999999999</v>
+        <v>0.2975</v>
       </c>
       <c r="D7">
         <v>2.5</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.74374999999999991</v>
+        <v>0.74375</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -12160,14 +15409,14 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.24182000000000001</v>
+        <v>0.24182</v>
       </c>
       <c r="D8">
         <v>2.14</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.51749480000000003</v>
+        <v>0.5174948</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -12179,7 +15428,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.20091000000000001</v>
+        <v>0.20091</v>
       </c>
       <c r="D9">
         <v>1.81</v>
@@ -12198,14 +15447,14 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.14364000000000002</v>
+        <v>0.14364</v>
       </c>
       <c r="D10">
         <v>1.33</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.19104120000000002</v>
+        <v>0.1910412</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -12217,33 +15466,33 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>8.5279999999999995E-2</v>
+        <v>0.08528</v>
       </c>
       <c r="D11">
         <v>0.82</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>6.9929599999999995E-2</v>
+        <v>0.0699296</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="B12">
-        <v>9.8000000000000004E-2</v>
+        <v>0.098</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6.5366000000000007E-2</v>
+        <v>0.065366</v>
       </c>
       <c r="D12">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>4.3599122000000004E-2</v>
+        <v>0.043599122</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -12251,18 +15500,18 @@
         <v>0.5</v>
       </c>
       <c r="B13">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="D13">
         <v>0.5</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -12270,105 +15519,106 @@
         <v>0.38</v>
       </c>
       <c r="B14">
-        <v>9.7000000000000003E-2</v>
+        <v>0.097</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3.6860000000000004E-2</v>
+        <v>0.03686</v>
       </c>
       <c r="D14">
         <v>0.38</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>1.4006800000000002E-2</v>
+        <v>0.0140068</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>0.25700000000000001</v>
+        <v>0.257</v>
       </c>
       <c r="B15">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>2.4157999999999999E-2</v>
+        <v>0.024158</v>
       </c>
       <c r="D15">
-        <v>0.25700000000000001</v>
+        <v>0.257</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>6.2086060000000002E-3</v>
+        <v>0.006208606</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9.7000000000000003E-2</v>
+        <v>0.097</v>
       </c>
       <c r="B16">
-        <v>9.2999999999999999E-2</v>
+        <v>0.093</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>9.0209999999999995E-3</v>
+        <v>0.009021</v>
       </c>
       <c r="D16">
-        <v>9.7000000000000003E-2</v>
+        <v>0.097</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>8.7503699999999995E-4</v>
+        <v>0.000875037</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="B17">
-        <v>9.0999999999999998E-2</v>
+        <v>0.091</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>3.2759999999999998E-3</v>
+        <v>0.003276</v>
       </c>
       <c r="D17">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.1793599999999999E-4</v>
+        <v>0.000117936</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="3:3">
       <c r="C18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="3:3">
       <c r="C19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9328A7-8064-534F-8B59-B3EA489BE49F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -12392,39 +15642,40 @@
         <v>5.63</v>
       </c>
       <c r="B2">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="C2">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="D2">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="E2">
         <f>B2+C2+D2</f>
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:1">
       <c r="A3">
         <v>5.51</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8739C6CC-B9CE-EF4A-8391-F289040EAFF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -12443,106 +15694,106 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:3">
       <c r="A2">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="B2">
-        <v>2.3E-2</v>
+        <v>0.023</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>5.8649999999999994E-2</v>
+        <v>0.05865</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>2.23</v>
       </c>
       <c r="B3">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C23" si="0">A3*B3</f>
-        <v>5.5750000000000001E-2</v>
+        <v>0.05575</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1.601</v>
       </c>
       <c r="B4">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>4.3227000000000002E-2</v>
+        <v>0.043227</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>1.044</v>
       </c>
       <c r="B5">
-        <v>2.5999999999999999E-2</v>
+        <v>0.026</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.7144000000000001E-2</v>
+        <v>0.027144</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.69599999999999995</v>
+        <v>0.696</v>
       </c>
       <c r="B6">
-        <v>2.8000000000000001E-2</v>
+        <v>0.028</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1.9487999999999998E-2</v>
+        <v>0.019488</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.39500000000000002</v>
+        <v>0.395</v>
       </c>
       <c r="B7">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>1.2245000000000001E-2</v>
+        <v>0.012245</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="B8">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="C8">
         <f t="shared" ref="C8" si="1">A8*B8</f>
-        <v>1.0701E-2</v>
+        <v>0.010701</v>
       </c>
       <c r="E8">
         <v>3.24</v>
       </c>
       <c r="F8">
-        <v>8.1000000000000003E-2</v>
+        <v>0.081</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="5:6">
       <c r="E9">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="F9">
         <f t="shared" ref="F9:F15" si="2">C2</f>
-        <v>5.8649999999999994E-2</v>
+        <v>0.05865</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="3:6">
       <c r="C10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12552,7 +15803,7 @@
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
-        <v>5.5750000000000001E-2</v>
+        <v>0.05575</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -12560,21 +15811,21 @@
         <v>3.24</v>
       </c>
       <c r="B11">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>8.1000000000000016E-2</v>
+        <v>0.081</v>
       </c>
       <c r="E11">
         <v>1.601</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
-        <v>4.3227000000000002E-2</v>
+        <v>0.043227</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="3:6">
       <c r="C12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12584,49 +15835,49 @@
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>2.7144000000000001E-2</v>
+        <v>0.027144</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="3:6">
       <c r="C13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.69599999999999995</v>
+        <v>0.696</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
-        <v>1.9487999999999998E-2</v>
+        <v>0.019488</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="3:6">
       <c r="C14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.39500000000000002</v>
+        <v>0.395</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
-        <v>1.2245000000000001E-2</v>
+        <v>0.012245</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="3:6">
       <c r="C15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.36899999999999999</v>
+        <v>0.369</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
-        <v>1.0701E-2</v>
+        <v>0.010701</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="3:3">
       <c r="C16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -12675,21 +15926,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A5D732D-6A8B-AE42-96C0-D4EB58715985}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -12705,11 +15957,11 @@
         <v>5.84</v>
       </c>
       <c r="I1">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="J1">
         <f>H1*I1</f>
-        <v>0.28032000000000001</v>
+        <v>0.28032</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -12723,17 +15975,17 @@
         <v>5.65</v>
       </c>
       <c r="B2">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="C2">
         <f>A2*B2</f>
-        <v>0.25425000000000003</v>
+        <v>0.25425</v>
       </c>
       <c r="H2">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="I2">
-        <v>6.7000000000000004E-2</v>
+        <v>0.067</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J24" si="0">H2*I2</f>
@@ -12744,7 +15996,7 @@
       </c>
       <c r="M2">
         <f>J1</f>
-        <v>0.28032000000000001</v>
+        <v>0.28032</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12752,11 +16004,11 @@
         <v>5.55</v>
       </c>
       <c r="B3">
-        <v>5.0999999999999997E-2</v>
+        <v>0.051</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C15" si="1">A3*B3</f>
-        <v>0.28304999999999997</v>
+        <v>0.28305</v>
       </c>
       <c r="H3">
         <v>4.32</v>
@@ -12766,10 +16018,10 @@
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>0.34560000000000002</v>
+        <v>0.3456</v>
       </c>
       <c r="L3">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M10" si="2">J2</f>
@@ -12781,28 +16033,28 @@
         <v>5.01</v>
       </c>
       <c r="B4">
-        <v>5.7000000000000002E-2</v>
+        <v>0.057</v>
       </c>
       <c r="C4">
         <f t="shared" si="1"/>
-        <v>0.28556999999999999</v>
+        <v>0.28557</v>
       </c>
       <c r="H4">
         <v>3.82</v>
       </c>
       <c r="I4">
-        <v>7.1999999999999995E-2</v>
+        <v>0.072</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
-        <v>0.27503999999999995</v>
+        <v>0.27504</v>
       </c>
       <c r="L4">
         <v>4.32</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>0.34560000000000002</v>
+        <v>0.3456</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -12817,7 +16069,7 @@
         <v>3.2</v>
       </c>
       <c r="I5">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -12828,23 +16080,23 @@
       </c>
       <c r="M5">
         <f t="shared" si="2"/>
-        <v>0.27503999999999995</v>
+        <v>0.27504</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="3:13">
       <c r="C6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="I6">
-        <v>5.8999999999999997E-2</v>
+        <v>0.059</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
-        <v>0.14808999999999997</v>
+        <v>0.14809</v>
       </c>
       <c r="L6">
         <v>3.2</v>
@@ -12854,76 +16106,76 @@
         <v>0.2336</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="3:13">
       <c r="C7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.6910000000000001</v>
+        <v>1.691</v>
       </c>
       <c r="I7">
-        <v>4.9000000000000002E-2</v>
+        <v>0.049</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
-        <v>8.2859000000000002E-2</v>
+        <v>0.082859</v>
       </c>
       <c r="L7">
-        <v>2.5099999999999998</v>
+        <v>2.51</v>
       </c>
       <c r="M7">
         <f t="shared" si="2"/>
-        <v>0.14808999999999997</v>
+        <v>0.14809</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="3:13">
       <c r="C8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.79600000000000004</v>
+        <v>0.796</v>
       </c>
       <c r="I8">
-        <v>3.5999999999999997E-2</v>
+        <v>0.036</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
-        <v>2.8656000000000001E-2</v>
+        <v>0.028656</v>
       </c>
       <c r="L8">
-        <v>1.6910000000000001</v>
+        <v>1.691</v>
       </c>
       <c r="M8">
         <f t="shared" si="2"/>
-        <v>8.2859000000000002E-2</v>
+        <v>0.082859</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="3:13">
       <c r="C9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.67900000000000005</v>
+        <v>0.679</v>
       </c>
       <c r="I9">
-        <v>3.4000000000000002E-2</v>
+        <v>0.034</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>2.3086000000000002E-2</v>
+        <v>0.023086</v>
       </c>
       <c r="L9">
-        <v>0.79600000000000004</v>
+        <v>0.796</v>
       </c>
       <c r="M9">
         <f t="shared" si="2"/>
-        <v>2.8656000000000001E-2</v>
+        <v>0.028656</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="3:13">
       <c r="C10">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12933,14 +16185,14 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.67900000000000005</v>
+        <v>0.679</v>
       </c>
       <c r="M10">
         <f t="shared" si="2"/>
-        <v>2.3086000000000002E-2</v>
+        <v>0.023086</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="3:10">
       <c r="C11">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12950,7 +16202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="3:10">
       <c r="C12">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12960,7 +16212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="3:10">
       <c r="C13">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12970,7 +16222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="3:10">
       <c r="C14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12980,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="3:10">
       <c r="C15">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -12990,7 +16242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="10:10">
       <c r="J16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -13045,21 +16297,22 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D7096B9-4D9E-EC45-B04A-7041D92C3E87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection sqref="A1:G24"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -13094,7 +16347,7 @@
       </c>
       <c r="D2">
         <f>B2/1000</f>
-        <v>0.20680000000000001</v>
+        <v>0.2068</v>
       </c>
       <c r="F2">
         <f>C2</f>
@@ -13102,7 +16355,7 @@
       </c>
       <c r="G2">
         <f>C2*D2</f>
-        <v>0.62040000000000006</v>
+        <v>0.6204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -13118,7 +16371,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D24" si="1">B3/1000</f>
-        <v>0.21209999999999998</v>
+        <v>0.2121</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F24" si="2">C3</f>
@@ -13126,7 +16379,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G24" si="3">C3*D3</f>
-        <v>0.64902599999999999</v>
+        <v>0.649026</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -13150,7 +16403,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="3"/>
-        <v>0.68137999999999999</v>
+        <v>0.68138</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -13174,7 +16427,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>0.71200000000000008</v>
+        <v>0.712</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -13190,7 +16443,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>0.22719999999999999</v>
+        <v>0.2272</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
@@ -13198,7 +16451,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>0.74521599999999988</v>
+        <v>0.745216</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -13214,7 +16467,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>0.22919999999999999</v>
+        <v>0.2292</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
@@ -13222,7 +16475,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>0.75635999999999992</v>
+        <v>0.75636</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -13238,7 +16491,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0.22900000000000001</v>
+        <v>0.229</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
@@ -13246,7 +16499,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>0.75570000000000004</v>
+        <v>0.7557</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -13270,7 +16523,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>0.75503999999999993</v>
+        <v>0.75504</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -13286,7 +16539,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>0.23219999999999999</v>
+        <v>0.2322</v>
       </c>
       <c r="F10">
         <f t="shared" si="2"/>
@@ -13294,7 +16547,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>0.7755479999999999</v>
+        <v>0.775548</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -13310,7 +16563,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0.23549999999999999</v>
+        <v>0.2355</v>
       </c>
       <c r="F11">
         <f t="shared" si="2"/>
@@ -13318,31 +16571,31 @@
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>0.80069999999999997</v>
+        <v>0.8007</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="B12">
         <v>237.2</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>0.23719999999999999</v>
+        <v>0.2372</v>
       </c>
       <c r="F12">
         <f t="shared" si="2"/>
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>0.95354399999999984</v>
+        <v>0.953544</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -13358,7 +16611,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>0.23100000000000001</v>
+        <v>0.231</v>
       </c>
       <c r="F13">
         <f t="shared" si="2"/>
@@ -13382,7 +16635,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>0.20100000000000001</v>
+        <v>0.201</v>
       </c>
       <c r="F14">
         <f t="shared" si="2"/>
@@ -13390,7 +16643,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>1.0512300000000001</v>
+        <v>1.05123</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -13406,7 +16659,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>0.16300000000000001</v>
+        <v>0.163</v>
       </c>
       <c r="F15">
         <f t="shared" si="2"/>
@@ -13414,7 +16667,7 @@
       </c>
       <c r="G15">
         <f t="shared" si="3"/>
-        <v>0.89161000000000001</v>
+        <v>0.89161</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -13422,7 +16675,7 @@
         <v>5.49</v>
       </c>
       <c r="B16">
-        <v>155.69999999999999</v>
+        <v>155.7</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -13430,7 +16683,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>0.15569999999999998</v>
+        <v>0.1557</v>
       </c>
       <c r="F16">
         <f t="shared" si="2"/>
@@ -13438,7 +16691,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>0.85479299999999991</v>
+        <v>0.854793</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -13454,7 +16707,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0.11370000000000001</v>
+        <v>0.1137</v>
       </c>
       <c r="F17">
         <f t="shared" si="2"/>
@@ -13462,7 +16715,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>0.64240500000000011</v>
+        <v>0.642405</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -13478,7 +16731,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>0.11040000000000001</v>
+        <v>0.1104</v>
       </c>
       <c r="F18">
         <f t="shared" si="2"/>
@@ -13486,7 +16739,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>0.62376000000000009</v>
+        <v>0.62376</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -13502,7 +16755,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>0.10340000000000001</v>
+        <v>0.1034</v>
       </c>
       <c r="F19">
         <f t="shared" si="2"/>
@@ -13510,7 +16763,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>0.58834600000000004</v>
+        <v>0.588346</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -13526,7 +16779,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>8.8200000000000001E-2</v>
+        <v>0.0882</v>
       </c>
       <c r="F20">
         <f t="shared" si="2"/>
@@ -13542,7 +16795,7 @@
         <v>5.77</v>
       </c>
       <c r="B21">
-        <v>78.599999999999994</v>
+        <v>78.6</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -13550,7 +16803,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>7.8599999999999989E-2</v>
+        <v>0.0786</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
@@ -13558,7 +16811,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>0.45352199999999993</v>
+        <v>0.453522</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -13574,7 +16827,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>6.1200000000000004E-2</v>
+        <v>0.0612</v>
       </c>
       <c r="F22">
         <f t="shared" si="2"/>
@@ -13598,7 +16851,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>5.7700000000000001E-2</v>
+        <v>0.0577</v>
       </c>
       <c r="F23">
         <f t="shared" si="2"/>
@@ -13622,7 +16875,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>4.41E-2</v>
+        <v>0.0441</v>
       </c>
       <c r="F24">
         <f t="shared" si="2"/>
@@ -13630,25 +16883,26 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>0.25886700000000001</v>
+        <v>0.258867</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9EA65CF-AD94-8B46-9328-4C4B253D2506}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -13676,7 +16930,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="B4">
         <v>0.21</v>
@@ -13716,7 +16970,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="B9">
         <v>0.08</v>
@@ -13732,29 +16986,30 @@
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F52D329-D3C9-5945-A60A-21171D2A0CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
-        <v>4.4400000000000004</v>
+        <v>4.44</v>
       </c>
       <c r="B1">
         <v>0.05</v>
@@ -13762,7 +17017,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="B2">
         <v>0.05</v>
@@ -13770,7 +17025,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="B3">
         <v>0.06</v>
@@ -13781,7 +17036,7 @@
         <v>4.28</v>
       </c>
       <c r="B4">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -13794,7 +17049,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>4.0599999999999996</v>
+        <v>4.06</v>
       </c>
       <c r="B7">
         <v>0.09</v>
@@ -13896,27 +17151,28 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A32BD4F-8F2D-284A-BA5A-C0279192DDE3}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScale="105" zoomScaleNormal="105" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -13926,124 +17182,666 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>4.84</v>
       </c>
       <c r="B2">
         <v>0.05</v>
       </c>
+      <c r="C2">
+        <f>A2</f>
+        <v>4.84</v>
+      </c>
+      <c r="D2">
+        <f>A2*B2</f>
+        <v>0.242</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>4.82</v>
       </c>
       <c r="B3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C14" si="0">A3</f>
+        <v>4.82</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D14" si="1">A3*B3</f>
+        <v>0.3374</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>4.8</v>
       </c>
       <c r="B4">
         <v>0.08</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.384</v>
+      </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>4.76</v>
       </c>
       <c r="B5">
         <v>0.09</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4.76</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.4284</v>
+      </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4.74</v>
       </c>
       <c r="B6">
         <v>0.1</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>4.74</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.474</v>
+      </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>4.66</v>
       </c>
       <c r="B7">
         <v>0.13</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4.66</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.6058</v>
+      </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4.62</v>
       </c>
       <c r="B8">
         <v>0.15</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4.62</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.693</v>
+      </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="B9">
         <v>0.18</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4.56</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.8208</v>
+      </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>3.78</v>
       </c>
       <c r="B10">
         <v>0.2</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>3.78</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.756</v>
+      </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>2.9</v>
       </c>
       <c r="B11">
         <v>0.2</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.58</v>
+      </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>2.14</v>
       </c>
       <c r="B12">
         <v>0.21</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2.14</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.4494</v>
+      </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>2.04</v>
       </c>
       <c r="B13">
         <v>0.21</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.4284</v>
+      </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>2.02</v>
       </c>
       <c r="B14">
         <v>0.21</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2.02</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.4242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q19" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>106</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="13.2" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1"/>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0.098</v>
+      </c>
+      <c r="C2">
+        <f>3-A2</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.098</v>
+      </c>
+      <c r="E2">
+        <f>A2-1.74</f>
+        <v>0.26</v>
+      </c>
+      <c r="F2">
+        <v>0.098</v>
+      </c>
+      <c r="H2">
+        <f>-(A2-3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2.04</v>
+      </c>
+      <c r="B3">
+        <v>0.123</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="0">3-A3</f>
+        <v>0.96</v>
+      </c>
+      <c r="D3">
+        <v>0.123</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E20" si="1">A3-1.74</f>
+        <v>0.3</v>
+      </c>
+      <c r="F3">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2.07</v>
+      </c>
+      <c r="B4">
+        <v>0.152</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.93</v>
+      </c>
+      <c r="D4">
+        <v>0.152</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="F4">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2.09</v>
+      </c>
+      <c r="B5">
+        <v>0.175</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.91</v>
+      </c>
+      <c r="D5">
+        <v>0.175</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.35</v>
+      </c>
+      <c r="F5">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2.12</v>
+      </c>
+      <c r="B6">
+        <v>0.205</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.88</v>
+      </c>
+      <c r="D6">
+        <v>0.205</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="F6">
+        <v>0.205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2.14</v>
+      </c>
+      <c r="B7">
+        <v>0.223</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.86</v>
+      </c>
+      <c r="D7">
+        <v>0.223</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>0.223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>2.17</v>
+      </c>
+      <c r="B8">
+        <v>0.254</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="D8">
+        <v>0.254</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="F8">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>2.2</v>
+      </c>
+      <c r="B9">
+        <v>0.283</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="D9">
+        <v>0.283</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+      <c r="F9">
+        <v>0.283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2.22</v>
+      </c>
+      <c r="B10">
+        <v>0.307</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="D10">
+        <v>0.307</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="F10">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2.24</v>
+      </c>
+      <c r="B11">
+        <v>0.327</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.76</v>
+      </c>
+      <c r="D11">
+        <v>0.327</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12">
+        <f t="shared" ref="C12:C20" si="2">3-A12</f>
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>-1.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1.74</v>
+      </c>
+      <c r="B13">
+        <v>0.001</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>1.26</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1.88</v>
+      </c>
+      <c r="B14">
+        <v>0.023</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>1.12</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0.14</v>
+      </c>
+      <c r="F14">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1.9</v>
+      </c>
+      <c r="B15">
+        <v>0.053</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>1.1</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="F15">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1.97</v>
+      </c>
+      <c r="B16">
+        <v>0.072</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>1.03</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="F16">
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>-1.74</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>4.74</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-3.48</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>-1.88</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>4.88</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-3.62</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>-1.9</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>4.9</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-3.64</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>-1.97</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>4.97</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-3.71</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>